--- a/xls/示例表格_副本2.xlsx
+++ b/xls/示例表格_副本2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540" activeTab="2"/>
+    <workbookView windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="key1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
-    <t>EquipConf</t>
+    <t>EquipConf3</t>
   </si>
   <si>
     <t>索引</t>
@@ -91,7 +91,7 @@
     <t>[5,6]</t>
   </si>
   <si>
-    <t>SuperEquipConf</t>
+    <t>SuperEquipConf3</t>
   </si>
   <si>
     <t>品质</t>
@@ -109,7 +109,7 @@
     <t>创世戒指</t>
   </si>
   <si>
-    <t>SuperEquipBaseConf</t>
+    <t>SuperEquipBaseConf3</t>
   </si>
   <si>
     <t>备注</t>
@@ -1352,8 +1352,8 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1785,8 +1785,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
